--- a/medicine/Enfance/Isabelle_Jarry/Isabelle_Jarry.xlsx
+++ b/medicine/Enfance/Isabelle_Jarry/Isabelle_Jarry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Jarry est une romancière et essayiste française née le 2 octobre 1959 (64 ans) à Paris.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabelle Jarry est membre de diverses commissions (auteurs de l'écrit de la Scam[1] qu'elle préside, Enrichissement de la Langue Française) et membre de divers jurys (Prix Georges Brassens, Prix Joseph Kessel, Prix de la Nouvelle Jacqueline de Romilly). Elle est membre du Conseil d'Administration de la Scam (Société civile des auteurs multimédia) depuis 2021.
-Elle est aussi biologiste et a travaillé et voyagé pendant plusieurs années avec Théodore Monod, spécialiste du désert[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Jarry est membre de diverses commissions (auteurs de l'écrit de la Scam qu'elle préside, Enrichissement de la Langue Française) et membre de divers jurys (Prix Georges Brassens, Prix Joseph Kessel, Prix de la Nouvelle Jacqueline de Romilly). Elle est membre du Conseil d'Administration de la Scam (Société civile des auteurs multimédia) depuis 2021.
+Elle est aussi biologiste et a travaillé et voyagé pendant plusieurs années avec Théodore Monod, spécialiste du désert.
 </t>
         </is>
       </c>
@@ -543,17 +557,19 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Théodore Monod, Paris, Éditions Plon, 1990, 239 p.  (ISBN 978-2259022002), 1993, Editions Payot, coll. "Petite Bibliothèque des Voyages"
 Mémoires d'un naturaliste voyageur, avec Théodore Monod, icon. de Jean-Marc Durou, préface de Jean Rouch, Marseille, France, Éditions AGEP, coll. « Mémoires d'aujourd'hui », 1990, 180 p.  (ISBN 978-2902634538)
 Voyage au Ténéré, Paris, Plon, 1991, 200 p. (ISBN 2-259-02388-6)
-L'homme de la passerelle, Paris, Éditions du Seuil, coll. « Cadre Rouge », 1992, 185 p.  (ISBN 978-2020177832)- Prix du Premier Roman 1992[3]
+L'homme de la passerelle, Paris, Éditions du Seuil, coll. « Cadre Rouge », 1992, 185 p.  (ISBN 978-2020177832)- Prix du Premier Roman 1992
 L’Archange perdu, Paris, Éditions Mercure de France, coll. « Bleue », 1990, 345 p.  (ISBN 978-2715218918)
 Prix Anna de Noailles de l'Académie française 1995
 William Wilson de 1983 à 1993, Paris, Comptoir général d'Édition, 1993, 221 p.  (ISBN 978-2213594545)
 Vingt-trois lettres d'Amérique, Paris, Éditions Fayard, 1995, 221 p.  (ISBN 978-2213594545)
-- Prix Amerigo-Vespucci 1995[4]
+- Prix Amerigo-Vespucci 1995
 Emportez-moi sans me briser, Paris, Éditions Fayard, 1996, 312 p.  (ISBN 978-2213597058)
 La Pluie des mangues. Histoires contemporaines du Cambodge, phot. d'Yves Gellie, Paris, Éditions Marval, 1997, 180 p.  (ISBN 978-2862342283)
 Au ciel les nuages. Hommage à Dominique Bagouet, Paris, Éditions Marval, 1998
@@ -565,7 +581,7 @@
 Millefeuille de onze ans, Paris, Éditions Stock, 2007, 230 p.  (ISBN 978-2234059399)
 La Traversée du Désert, Paris, Éditions Stock, 2008, 240 p.  (ISBN 978-2234060319)
 Contre mes seuls ennemis (https://www.editions-stock.fr/livres/hors-collection-litterature-francaise/contre-mes-seuls-ennemis-9782234063181), Paris, Éditions Stock, 2009, 203 p.  (ISBN 978-2234063181)
-La Voix des êtres aimés, Paris, Éditions Stock, coll. « La Bleue », 2011, 304 p.  (ISBN 978-2234062375)[5]
+La Voix des êtres aimés, Paris, Éditions Stock, coll. « La Bleue », 2011, 304 p.  (ISBN 978-2234062375)
 Magique aujourd’hui (http://www.gallimard.fr/Catalogue/GALLIMARD/Blanche/Magique-aujourd-hui), Paris, Éditions Gallimard, coll. « La Blanche », 2015, 336 p.  (ISBN 978-2-07-014892-9)
 In paradisum (http://www.gallimard.fr/Catalogue/GALLIMARD/Blanche/In-paradisum), Paris, Éditions Gallimard, coll. « La Blanche », 2019, 432 p.  (ISBN 978-2-07-282168-4)
 Littérature Jeunesse
